--- a/terminology.xlsx
+++ b/terminology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliyan/PycharmProjects/tmc-translate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B4AC5C-C390-FE43-8FE6-9108BC58684B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A479186F-9A11-1447-B6D1-F829C4332E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
   <si>
     <t>english_name</t>
   </si>
@@ -99,6 +99,607 @@
   </si>
   <si>
     <t>在物品分类中使用，分类器需要填充后才能起作用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aligner</t>
+  </si>
+  <si>
+    <t>tags: StorageTech Contraption. - It aligns items within a block to ensure some sort of behavior. More basic concepts involve simply letting items in a water or ice stream hit against a block with a certain hitbox, while more complex ones involve precisely timed contraptions, see @[Perfect aligner]. The more simple use cases involve using a chest, dragon egg, 2 or 3 stack of pickles, cake or some other block to align the items between two blocks such that they go over some hoppers and are inside a water stream at the same time. The use of different hitboxes allows for some more complex behaviour, where items can cycle exactly twice in a loop and then exit, or you can send many channels along one water line and have each channel exit in a different spot of the stream.</t>
+  </si>
+  <si>
+    <t>Batcher</t>
+  </si>
+  <si>
+    <t>tags: StorageTech Contraption. - A Batcher groups item entities together before periodically releasing them into a waterstream or iceline. This is done to improve lag and because some filters ( Especially 2x filters ) would be on cooldown much less often and therefore miss less or no items.</t>
+  </si>
+  <si>
+    <t>Binary</t>
+  </si>
+  <si>
+    <t>tags: Concept. - An encoding where each digit of a code is either on or off (we say it has a binary state, usually represented with 0s and 1s). A four digit (@[Bit]) signal could have the states 0000 or 0110 or 0100, or any other combination of the valid states. In terms of minecraft, this usually translates to a wire or a rail being on or off, a piston being extended or retracted, a note block being powered or unpowered, etc.</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>tags: Concept. - Short for binary digit: the digits in a @[binary] system.</t>
+  </si>
+  <si>
+    <t>Block event delay</t>
+  </si>
+  <si>
+    <t>tags: Concept. - Block event delay usually refers to piston updating other pistons in a chain reaction within a single game tick. Since pistons activate during the block event phase of the tick (kind of) and things execute in the order they are scheduled, having something be activated by a piston that was updated by a chain of three other pistons before it (BED 3) will always happen before something that was activated by a BED 5 event.</t>
+  </si>
+  <si>
+    <t>Block Update Detector</t>
+  </si>
+  <si>
+    <t>tags: Contraption. - A Block Update detector is a device that has something happen when it receives an update. Example: A piston that is @[Quasi-powered](Quasi connectivity) but not yet updated is called "BUDded", and will fire when updated. This term is sometimes used to refer to a component that is being QC powered by saying it's "BUD powered".</t>
+  </si>
+  <si>
+    <t>Box Comparer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags: StorageTech Contraption. - A Box Comparer is a contraption that takes two boxes as input, and compares them by signal strength. A Box comparer normally has dedicated outputs for the fuller and less full boxes.
+Box comparers are used in many contraptions, one example is making sure that @[Mergers](Merger) get the fuller box in the correct input. </t>
+  </si>
+  <si>
+    <t>Box Detection</t>
+  </si>
+  <si>
+    <t>tags: Feature, StorageTech Concept. - Usually used as a way to tag @[Loaders](Loader) and @[Box Displays](Box Display) that restart themselves when boxes come in and they were previously empty.</t>
+  </si>
+  <si>
+    <t>Box Display</t>
+  </si>
+  <si>
+    <t>tags: StorageTech Contraption. - A contraption that displays a shulker box and has some or all of the following features:
+a button to dispense a new box, breaking of the box when it empties, automatically dispensing a new box when the old one is broken, storage for new shulker boxes, access to said storage, and some others, like hopper locking and not hiding boxes from the player in inaccessible inventories (called no buffer).</t>
+  </si>
+  <si>
+    <t>Box Separator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags: StorageTech Contraption. - A Box Separator is a contraption that takes boxes as input and separates them into different outputs based on their contents. This could for example be a contraption that takes single item-type boxes and has different outputs for boxes with 16-stackables and 64-stackables </t>
+  </si>
+  <si>
+    <t>Box Sorter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags: StorageTech Contraption. - A Box Sorter is a contraption that takes in boxes of a single item-type, takes the first item out and assigns the box to a storage @[Slice] that matches the filter of that item. </t>
+  </si>
+  <si>
+    <t>Bulk Storage</t>
+  </si>
+  <si>
+    <t>tags: StorageTech Contraption. - At it's simplest, a bulk storage is just a system that stores a lot of items, usually a single type per module and in box form. The challenge usually comes in trying to make the system compact, extremely lag friendly (through @[Hopper-locked] storage and other techniques), and adding features like @[Item Call] and @[Encoded] storage.</t>
+  </si>
+  <si>
+    <t>Chest Hall</t>
+  </si>
+  <si>
+    <t>tags: StorageTech Contraption. - A hall containing chests for items. It usually come in @[slices](slice) so that it can be stacked and extended as large as needed. They differ widely in functionality and amount of items available in each slice. Both encoded chest halls and fixed item sorter based chest halls exists. These are usually the main @[UI] elements of a storage system.</t>
+  </si>
+  <si>
+    <t>Comparator Update Detector</t>
+  </si>
+  <si>
+    <t>tags: Contraption. - A Comparator Update Detector is based on the behavior inherent to comparators where they don't notice inventory changes when reading it through a solid block (including an inventory being moved away or put in place, like a composter being moved by a piston). The CUD will then change it's signal once it either receives a block or inventory update.</t>
+  </si>
+  <si>
+    <t>Crosstalk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags: Bad Practice, StorageTech Concept. - A term used for when 2 tiled @[Slices](slice) are interfering with each other in any situation. </t>
+  </si>
+  <si>
+    <t>Decoder</t>
+  </si>
+  <si>
+    <t>tags: Contraption. - A Decoder has two main meanings in storage tech: A contraption that translates code or data to item, like an encoded storage hall, the inverse of an @[Encoder], or one that translates code into user-readable information, like a display. In addition, in computational redstone it's sometimes used to mean increasing the size of a base, bin to hex, for example, see @[Transcoder].</t>
+  </si>
+  <si>
+    <t>Directional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags: Bad Practice, Concept. - A contraption is said to be directional if it exhibits a different behavior when rotated or mirrored.  This is usually caused by some internal component being directional itself, which in turn is most often caused by update order: each components notifies its neighbors of the update in a set order (for example, negative to positive z first, then negative to positive y, then x). There are also other causes of directionality. </t>
+  </si>
+  <si>
+    <t>Dropper speed</t>
+  </si>
+  <si>
+    <t>tags: Feature. - Similar to @[Hopper speed], but less frequently used. Refers to the speed at which items are processed in a dropper when clocked at the minimum interval (1 item every 4@[gt](gametick)). Usually written as an integer or fraction (e.g. "3x or 1/2x dropper speed"). 1x Dropper speed is equal to 2x @[Hopper speed].</t>
+  </si>
+  <si>
+    <t>Dropperline</t>
+  </si>
+  <si>
+    <t>tags: Contraption. - A line of droppers to transport items fast.</t>
+  </si>
+  <si>
+    <t>Dust updateless</t>
+  </si>
+  <si>
+    <t>tags: Feature, Good Practice, Concept. - Some contraptions are not @[Dustless], but the dust they use does not get updated (does not change @[ss](Signal Strength)). This can be because it is either used to steadily power a component, or because it's used by redirecting it, but not changing ss. Redirecting dust is really lag friendly, as lag usage goes. These terms are therefore often used interchangeably.</t>
+  </si>
+  <si>
+    <t>Dustless</t>
+  </si>
+  <si>
+    <t>tags: Feature, Good Practice, Concept. - A contraption that makes no use of redstone dust. Redstone dust is one of the single most laggiest components in the game, since it gives 25 updates for each @[ss](Signal Strength) change. When increasing signal, it updates one for each increase level, so going from ss 3 to 7, for instance would give 100 block updates. Decreasing signal is different between versions 1.14- and 1.15+, where in the former it happens the same way it does when increasing values, and in the latter, it moves by steps of two, reducing the amount of updates by half. In 1.15+ dust dots (single dust) update all at once, without stepping through intermediary ss values. A big part of the community also calls @[Dust updateless] contraptions Dustless, since the updates is the only part of the dust that lags.</t>
+  </si>
+  <si>
+    <t>Encoded</t>
+  </si>
+  <si>
+    <t>tags: Concept. - A system is said to be encoded when a signal in the form of a code is used to decide the fate of items or boxes. In broader terms, it refers to systems that use codes to transfer instructions. Codes can be a @[Binary] signal, a @[Hexadecimal] signal or, less often, octal or quaternary, with either multiple or single digits.</t>
+  </si>
+  <si>
+    <t>Encoder</t>
+  </si>
+  <si>
+    <t>tags: StorageTech Contraption. - An Encoder has two main meanings in storage tech: A contraption that translates items into a code, where code can be any sort of signal in any base (bin, hex, other less used ones) or other codes (block event delay), or a contraption that translates a player input (say a selection panel) into code. In addition, in computational redstone, this sometimes refers to decreasing the size of the base used in the code: for example hex to bin. see @[Transcoder].</t>
+  </si>
+  <si>
+    <t>Fill Sorter</t>
+  </si>
+  <si>
+    <t>tags: StorageTech Contraption. - A Fill Sorter is a @[Box Separator] that has different outputs based on how full the box is, usually Empty / Full / Partial.
+IsEmpty is a Fill Sorter that only has outputs for empty and not-empty ( Full / Partial )
+IsFull is a Fill Sorter that only has outputs for full and not-full ( Empty / Partial )</t>
+  </si>
+  <si>
+    <t>Filtered Loader</t>
+  </si>
+  <si>
+    <t>tags: StorageTech Contraption. - A @[Loader] combined with an item filter that fills a box with just one item type.</t>
+  </si>
+  <si>
+    <t>Fixed Sorter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags: StorageTech Contraption. - Short for fixed type item sorter: a sorter that filters out one single item type and can't be changed without manual intervention. </t>
+  </si>
+  <si>
+    <t>FPS</t>
+  </si>
+  <si>
+    <t>tags: Concept. - A measure of how many frames a client is able to process each second. This is similar to, but independent of @[TPS], which denotes server-side performance.</t>
+  </si>
+  <si>
+    <t>Gametick</t>
+  </si>
+  <si>
+    <t>tags: Concept. - Minecraft iteratively runs its processing code in a loop. One cycle of this loop is called a Tick or Gametick (gt). 
+Gameticks are also used as the default measurement of time while working with redstone. The game attempts to run 20 gameticks a second (20tps), but will fail to do so and slow down the game if the server is lagging (&gt;50mspt). 
+Often confused with the less technical term "redstone tick". A redstone tick is in practice 2gt, as its origin comes from the default setting of a repeater. 
+A default repeater when freshly placed is a 2gt- or one redstone-tick-repeater.</t>
+  </si>
+  <si>
+    <t>Global Output</t>
+  </si>
+  <si>
+    <t>tags: Feature, StorageTech Concept. - A contraption, usually a @[1-wide tileable](n-Wide Tileable) one, that has only one output for all the @[Slices](Slice), in contrast to one output per slice (see @[Slice Preservation]).</t>
+  </si>
+  <si>
+    <t>Global/Local</t>
+  </si>
+  <si>
+    <t>tags: StorageTech Concept. - Annotates if a signal comes from a global system ( a "brain" ), or from within a @[Slice].
+For example, one global clock could send signals to 8 slices on an interval, or all 8 slices could have their own clock.</t>
+  </si>
+  <si>
+    <t>Hexadecimal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags: Concept. - A code where each digit of the code has 16 possible states (usually represented as 0 to 9 and then A to F). It's most commonly implemented with signal strength values, where @[ss](Signal Strength) 0 represents 0, ss10 represents A, ss15 represents F and so on. Multiple hex signals can be combined to form a code with multiple digits. For example, valid three digit hex codes are 032, AFF, 0F4. </t>
+  </si>
+  <si>
+    <t>Hopper speed</t>
+  </si>
+  <si>
+    <t>tags: Feature, StorageTech Concept. - Refers to the speed at which items are processed in a hopper (1 item every 8@[gt](gametick)). Often used as a way of quantifying speed of a system in terms of how many hoppers worth of items are processed in or out. Usually written as an integer or fraction (e.g. "3x or 1/2x hopper speed"). See also: @[Dropper speed].</t>
+  </si>
+  <si>
+    <t>Hopper-locked</t>
+  </si>
+  <si>
+    <t>tags: Feature, Good Practice, StorageTech Concept. - Used to tag contraptions that lock their hoppers when the hoppers are not needed. This is because hoppers are otherwise very laggy.</t>
+  </si>
+  <si>
+    <t>Item Call</t>
+  </si>
+  <si>
+    <t>tags: Feature, StorageTech Contraption. - A device, mechanism or feature that allows the user to request items. The requested items may land in a user accessible inventory or be used to restock some component. Some systems can also use item call to automatically restock, for example from @[Bulk Storage].</t>
+  </si>
+  <si>
+    <t>Keygen</t>
+  </si>
+  <si>
+    <t>tags: StorageTech Contraption. - Usually part of a @[Box Sorter], a keygen is a contraption that takes one item out of a box, breaks it and sends the item and sends one through one hopper or @[Dropperline] and the other through another one, with some delay.</t>
+  </si>
+  <si>
+    <t>Liquid Update Detector</t>
+  </si>
+  <si>
+    <t>tags: Contraption. - A Liquid Update Detector (LUD) is a device that uses liquids to detect a special set of updates, some of which can be detected with a @[Block Update Detector], with a @[Comparator Update Detector] or with an observer, but some of which are exclusively detected by LUDs. After detecting the update and triggering, it usually resets the liquid to a state where it can detect an update again.</t>
+  </si>
+  <si>
+    <t>Loader</t>
+  </si>
+  <si>
+    <t>tags: StorageTech Contraption. - A contraption that fills a shulkerbox with items and then breaks the shulkerbox.</t>
+  </si>
+  <si>
+    <t>Locational</t>
+  </si>
+  <si>
+    <t>tags: Bad Practice, Concept. - A contraption is said to be locational when it exhibits different behavior when built in different locations in the world. This is almost always caused by redstone dust updates themselves being locational: the way they notify their neighbors of their updates is not consistent across locations in the world.</t>
+  </si>
+  <si>
+    <t>Merger</t>
+  </si>
+  <si>
+    <t>tags: StorageTech Contraption. - A Merger is a contraption that takes 2 boxes as input, and merges them into one.
+Mergers can work of mixed boxes, however most mergers assume that both boxes only 
+contain one itemtype and are often used in conjunction with @[Splitters](Splitter).</t>
+  </si>
+  <si>
+    <t>Mixed Box</t>
+  </si>
+  <si>
+    <t>tags: StorageTech Concept. - A shulker box with multiple item types.</t>
+  </si>
+  <si>
+    <t>Mixed loader</t>
+  </si>
+  <si>
+    <t>tags: StorageTech Contraption. - A @[Loader]  that can handle multiple itemtypes going to the same box. Fullness detection is usually done by reading that items are backing up in the container ( hopper / dropper ) feeding the box.</t>
+  </si>
+  <si>
+    <t>MSPT</t>
+  </si>
+  <si>
+    <t>tags: Concept. - A measurement of how many milliseconds it takes to process each @[gametick]. If a server exceeds 50MSPT in total, then the game will slow down, as there is no longer enough time to process all 20 @[ticks per second](tps). MSPT is also used as a measure of how performance-intensive a contraption is by seeing how much the MSPT increases by running/loading it.</t>
+  </si>
+  <si>
+    <t>Multi Item Sorter</t>
+  </si>
+  <si>
+    <t>tags: StorageTech Contraption. - A type of item sorter (system) that sorts multiple item-types into a single chest or group of chests, usually used to reduce space used by single item-type sorters to group not too common items into categories.</t>
+  </si>
+  <si>
+    <t>n-wide AB tileable</t>
+  </si>
+  <si>
+    <t>tags: Feature, Concept. - An extension of @[n-Wide tileable], but where a solution has been provided by the author on how to put 2 @[Slices](Slice) of the same system next to each other, by moving/editing some components within the system. The capital letters ( AB, or ABC, or ABCD, ... ) annotate how the slices are tiled, and how many versions of the slice exist to achieve a result.</t>
+  </si>
+  <si>
+    <t>n-Wide tileable</t>
+  </si>
+  <si>
+    <t>tags: Feature, Concept. - Annotates the width of a slice, and whether or not you can build them right next to each other. There are systems that are 1 wide, but you can't put 2 next to each other due to @[Crosstalk], so they don't get this annotation. Sometimes they are @[n-Wide AB Tileable] instead.</t>
+  </si>
+  <si>
+    <t>Pair Searcher</t>
+  </si>
+  <si>
+    <t>tags: StorageTech Contraption. - A pair searcher is a contraption that takes in multiple boxes (usually single item-type boxes) and outputs pairs of boxes so that the boxes of each pair have the same item type. They differ in speed, how they handle single boxes (ones that don't have a matching pair) and implementation in general.</t>
+  </si>
+  <si>
+    <t>Parallel codes</t>
+  </si>
+  <si>
+    <t>tags: Concept. - A code is said to be parallel if the all the bits of the signal are sent through individual wires or lines This usually allows for faster and easier to use codes than @[Serial codes], but it tends to be more expensive and bigger.</t>
+  </si>
+  <si>
+    <t>Perfect aligner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags: StorageTech Contraption. - Perfect item aligner refers to a contraption that aligns items in all three axes before sending them down a stream, where they usually get picked up by hoppers. Since these contraptions are usually ran at @[Hopper speed],  the items need to have a perfect timing between them, so that they don't reach a hopper during its cooldown stage, hence why these are also called 4D aligners (3D+time). </t>
+  </si>
+  <si>
+    <t>Peripheral</t>
+  </si>
+  <si>
+    <t>tags: StorageTech Contraption. - Term used to describe contraptions that are almost Storage Tech. Examples are Furnace Arrays, Brewers, Crafting stations, Autocrafters, ...</t>
+  </si>
+  <si>
+    <t>Pistonless</t>
+  </si>
+  <si>
+    <t>tags: Feature, Good Practice. - A contraption that makes no use of pistons. This is to reduce @[client-side lag](fps) due to tile entities in 1.16+ and general server-side lag, since each piston has to check all the @[Tile Entities](Tile Entity) in the world each time it tries to extend, and storage systems tend to have a lot of TEs. This effect is partly mitigated in 1.17+ and greatly mitigated by the Lithium mod.</t>
+  </si>
+  <si>
+    <t>Precision Hopper</t>
+  </si>
+  <si>
+    <t>tags: Feature, StorageTech Contraption. - A hopper that is unlocked in the same tick as it's supposed to suck up an item. If the item entity is created in that tick, as it would be with for example timing a shulker box breaking correctly, there will be 0 physics enacted on that item. This makes it not only extremely reliable as there are no physics issues, but also might be lazy chunk compatible [Needs proof] .</t>
+  </si>
+  <si>
+    <t>Precision Loader</t>
+  </si>
+  <si>
+    <t>tags: StorageTech Contraption. - A @[Loader] that makes use of a @[Precision Hopper] to achieve @[Slice Preservation]</t>
+  </si>
+  <si>
+    <t>Quasi connectivity</t>
+  </si>
+  <si>
+    <t>tags: Concept. - The effect of quasi-powering a piston, dropper or dispenser. A good way to visualize when a block is being quasi-powering is to imagine a redstone lamp above the component. If that lamp was to be on in that location, the block is quasi-powered. Quasi-powering usually doesn't update the component being QCed, which results in the component not "realizing" it should activate or deactivate until it receives an update. For this reason, QC is often  used for @[Block Update Detector], and people even sometimes say "BUD powered" rather than "quasi powered".</t>
+  </si>
+  <si>
+    <t>Sequential Sorter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags: StorageTech Contraption. - </t>
+  </si>
+  <si>
+    <t>Serial codes</t>
+  </si>
+  <si>
+    <t>tags: Concept. - A code is said to be serial if the bits of the signal are sent one after the other through a single wire. This is more space and resource efficient than @[Parallel codes], but usually slower and harder to implement.</t>
+  </si>
+  <si>
+    <t>Serializer/Deserializer</t>
+  </si>
+  <si>
+    <t>tags: StorageTech Contraption. - Components used to convert @[Serial codes] into @[Parallel codes] or viceversa. These sometimes also act as @[Encoders](Encoder) or @[Decoders](Decoder), in the computational redstone sense. For example serial hex to parallel binary is a deserializer encoder.</t>
+  </si>
+  <si>
+    <t>Silent</t>
+  </si>
+  <si>
+    <t>tags: Feature. - A contraption that does not make noise when activated. Sources of noise are: pistons, uncovered note blocks, trapdoors, doors and fence gates, and droppers or dispensers failing to fire. Silent contraptions usually avoid all of those.</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>tags: Concept. - A repeatable ( Preferably tileable ) component within a system.</t>
+  </si>
+  <si>
+    <t>Slice Preservation</t>
+  </si>
+  <si>
+    <t>tags: Feature, StorageTech Concept. - A contraption is said to be slice preserving if it outputs the shulker boxes or items within the slice, in contrast to @[Global Output], where there's one output for all @[Slices](Slice). This term is mostly used for @[1-Wide Tileable](N-Wide Tileable) contraptions. Since some systems are only mostly slice preserving, but fail to be so in some specific condition or with a very low change, some people use the term perfect slice preservation for a system that does not have said flaws.</t>
+  </si>
+  <si>
+    <t>Smart box display</t>
+  </si>
+  <si>
+    <t>tags: StorageTech Contraption. - A @[Box Display] that will only break the shulker box when it's both empty and closed.</t>
+  </si>
+  <si>
+    <t>Solid state</t>
+  </si>
+  <si>
+    <t>tags: Feature. - A contraption that has no moving parts or, more loosely, that has no pistons spitting blocks, or other forms of @[Toggle state]. This term is also sometimes interchangeably used with @[Pistonless], although you can have a solid state contraption (in the loose way) with pistons by having them never spit out the block, i.e. powering them with long pulses only.</t>
+  </si>
+  <si>
+    <t>Splitter</t>
+  </si>
+  <si>
+    <t>tags: StorageTech Contraption. - A Splitter is a contraption that takes a @[Mixed Box] as input and unloads the box into one box per item type.</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>tags: Concept. - Abbreviation for redstone dust/comparator Signal Strength</t>
+  </si>
+  <si>
+    <t>Temp Storage</t>
+  </si>
+  <si>
+    <t>tags: StorageTech Contraption. - Short for "temporary storage". It's not a way to refer to a storage system that will only be used temporarily. It refers to a storage system in which boxes are stored temporarily, usually until a second box of the same item type reaches the system and they can be combined in a @[Merger] and then be sent to a more final storage (like @[Bulk Storage], @[Chest Hall] or others).</t>
+  </si>
+  <si>
+    <t>Tile Entity</t>
+  </si>
+  <si>
+    <t>tags: Concept. - Tile entities (less often referred to as Block Entities) are blocks that have NBT-data attached to them, for example all blocks with inventories.
+More information on the [block entity wiki page](https://minecraft.wiki/w/Block_entity)</t>
+  </si>
+  <si>
+    <t>Tile Tick Priority</t>
+  </si>
+  <si>
+    <t>tags: Concept. - Usually used when referring to pointing Comparators in @[Dropperlines](Dropperline) into repeaters/comparators increase the priority of the comparator and allow it to actually notice that an item is coming through</t>
+  </si>
+  <si>
+    <t>Togglestate</t>
+  </si>
+  <si>
+    <t>tags: Bad Practice, Concept. - Usually used to refer to intentionally having sticky piston's drop its block by sending it a &lt;3gt pulse in order to cycle between two different states (toggling between block in and out).
+Importantly, togglestates have no default position, and there is no way to reset them. This makes them painful to use in survival as they're hard to debug.
+This is different to latches, which are also systems that hold state. Latches usually have a reset signal that you can trigger when something goes wrong.</t>
+  </si>
+  <si>
+    <t>TPS</t>
+  </si>
+  <si>
+    <t>tags: Concept. - A measurement of how many @[gametick]s are happening each second. The game normally operates at 20TPS, but if @[MSPT] exceeds 50ms then the game will start to slow down. Mods such as Carpet Mod are able to stop, slow down,  or speed up the tick speed of a server, which can be useful for testing.</t>
+  </si>
+  <si>
+    <t>Transcoder</t>
+  </si>
+  <si>
+    <t>tags: StorageTech Contraption. - A device or contraption to convert between encodings of a signal: @[Binary] to @[Hexadecimal], hex to octal, pulse length to binary, block event delay to overloaded comparator, etc.</t>
+  </si>
+  <si>
+    <t>Unloader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags: StorageTech Contraption. - A contraption that removes item contents from a shulkerbox. </t>
+  </si>
+  <si>
+    <t>Unstackable filter</t>
+  </si>
+  <si>
+    <t>tags: StorageTech Contraption. - A system to filter out unstackable items from a stream of stackable items. Usually done by reading the signal strength the item produces when in a container.</t>
+  </si>
+  <si>
+    <t>Unstackable sorter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags: StorageTech Contraption. - An item sorter that sorts unstackable items into different categories. Regular item sorters can not be used for this use case, because the items don't stack, so unique behaviors of each item type have to be used in order to separate them. Not to be confused with @[Unstackable filter] </t>
+  </si>
+  <si>
+    <t>User interface</t>
+  </si>
+  <si>
+    <t>tags: Concept. - User interface. The part of a contraption or system that the end user interacts with, regardless of the inner workings of the system.</t>
+  </si>
+  <si>
+    <t>Variable sorter</t>
+  </si>
+  <si>
+    <t>tags: StorageTech Contraption. - An item filter that does not always filter for the same item, but instead can be remapped,  meaning getting the item type reassigned (in contrast with @[Fixed Sorter]). There are many different types of variable sorters: * Timer-based variable sorters unmap when a timer runs out. * Self-resetting variable sorters try to unmap constantly but fail if more items come in of the same type. * Globally-Triggered variable sorters unmap when receiving a signal from a global trigger</t>
+  </si>
+  <si>
+    <t>MSPT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>混杂打包机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比特</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二进制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度 / 方块事件延迟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUD (简称)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜影盒展示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜影盒分类器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大宗存储</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>静音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号强度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时存储</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方块实体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划刻优先级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可堆叠物品筛选器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可堆叠物品分类器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自适应打包机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无红石粉（简称：无粉）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四分仪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏刻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局/局部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十六进制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏斗速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏斗锁定（简称：全锁）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打包机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无活塞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N宽AB单片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N宽单片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多物品分类</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -471,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="200" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -563,6 +1164,706 @@
         <v>23</v>
       </c>
     </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" t="s">
+        <v>195</v>
+      </c>
+      <c r="C30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" t="s">
+        <v>197</v>
+      </c>
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" t="s">
+        <v>198</v>
+      </c>
+      <c r="C36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" t="s">
+        <v>199</v>
+      </c>
+      <c r="C37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" t="s">
+        <v>200</v>
+      </c>
+      <c r="C38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" t="s">
+        <v>203</v>
+      </c>
+      <c r="C44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" t="s">
+        <v>173</v>
+      </c>
+      <c r="C47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" t="s">
+        <v>172</v>
+      </c>
+      <c r="C48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" t="s">
+        <v>207</v>
+      </c>
+      <c r="C49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" t="s">
+        <v>205</v>
+      </c>
+      <c r="C50" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" t="s">
+        <v>206</v>
+      </c>
+      <c r="C51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" t="s">
+        <v>204</v>
+      </c>
+      <c r="C56" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" t="s">
+        <v>182</v>
+      </c>
+      <c r="C63" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>138</v>
+      </c>
+      <c r="B64" t="s">
+        <v>181</v>
+      </c>
+      <c r="C64" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>146</v>
+      </c>
+      <c r="C68" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>148</v>
+      </c>
+      <c r="B69" t="s">
+        <v>183</v>
+      </c>
+      <c r="C69" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>150</v>
+      </c>
+      <c r="B70" t="s">
+        <v>184</v>
+      </c>
+      <c r="C70" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>152</v>
+      </c>
+      <c r="B71" t="s">
+        <v>185</v>
+      </c>
+      <c r="C71" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>154</v>
+      </c>
+      <c r="B72" t="s">
+        <v>186</v>
+      </c>
+      <c r="C72" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>156</v>
+      </c>
+      <c r="C73" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>158</v>
+      </c>
+      <c r="B74" t="s">
+        <v>187</v>
+      </c>
+      <c r="C74" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>160</v>
+      </c>
+      <c r="C75" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>162</v>
+      </c>
+      <c r="C76" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>164</v>
+      </c>
+      <c r="B77" t="s">
+        <v>188</v>
+      </c>
+      <c r="C77" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>166</v>
+      </c>
+      <c r="B78" t="s">
+        <v>189</v>
+      </c>
+      <c r="C78" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>168</v>
+      </c>
+      <c r="B79" t="s">
+        <v>190</v>
+      </c>
+      <c r="C79" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>170</v>
+      </c>
+      <c r="B80" t="s">
+        <v>191</v>
+      </c>
+      <c r="C80" t="s">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
